--- a/ig/ch-lab-report/StructureDefinition-ChLab-observation-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ChLab-observation-panel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$122</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="660">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Panel</t>
+    <t>CH LAB-Report Observation Results: Panel</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -933,7 +933,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1351,8 +1351,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t>integer
+SampledData</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1394,6 +1394,16 @@
   </si>
   <si>
     <t>valueString</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Observation.value[x]:valueRange</t>
@@ -2025,6 +2035,10 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -2035,6 +2049,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRange</t>
@@ -2412,7 +2429,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP120"/>
+  <dimension ref="A1:AP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11121,19 +11138,19 @@
         <v>85</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>440</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>428</v>
@@ -11194,39 +11211,39 @@
         <v>96</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>444</v>
+        <v>108</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>85</v>
@@ -11248,16 +11265,16 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>428</v>
@@ -11321,7 +11338,7 @@
         <v>158</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>85</v>
@@ -11330,10 +11347,10 @@
         <v>85</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>139</v>
+        <v>448</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>85</v>
@@ -11344,13 +11361,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
@@ -11369,19 +11386,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>428</v>
@@ -11442,28 +11459,28 @@
         <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>431</v>
+        <v>158</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>108</v>
+        <v>456</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>433</v>
+        <v>139</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>435</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" hidden="true">
@@ -11741,19 +11758,19 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>466</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>428</v>
@@ -11814,39 +11831,39 @@
         <v>96</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>470</v>
+        <v>108</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>85</v>
@@ -11865,19 +11882,19 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>285</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>428</v>
@@ -11905,11 +11922,13 @@
         <v>85</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>475</v>
+        <v>85</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>85</v>
@@ -11936,28 +11955,28 @@
         <v>96</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>431</v>
+        <v>158</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>108</v>
+        <v>473</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>435</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" hidden="true">
@@ -11965,9 +11984,11 @@
         <v>476</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>85</v>
       </c>
@@ -11976,7 +11997,7 @@
         <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>85</v>
@@ -11985,22 +12006,22 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>285</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>85</v>
@@ -12025,13 +12046,11 @@
         <v>85</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>85</v>
@@ -12049,7 +12068,7 @@
         <v>85</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>83</v>
@@ -12058,7 +12077,7 @@
         <v>96</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>108</v>
@@ -12067,41 +12086,41 @@
         <v>85</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>486</v>
+        <v>85</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>85</v>
@@ -12113,16 +12132,16 @@
         <v>285</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12150,10 +12169,10 @@
         <v>343</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>85</v>
@@ -12171,16 +12190,16 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>85</v>
+        <v>486</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>108</v>
@@ -12189,31 +12208,31 @@
         <v>85</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>493</v>
+        <v>85</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>494</v>
+        <v>139</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>496</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>85</v>
+        <v>489</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12232,19 +12251,19 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>498</v>
+        <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12269,13 +12288,13 @@
         <v>85</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>85</v>
+        <v>343</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>85</v>
+        <v>494</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>85</v>
+        <v>495</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>85</v>
@@ -12293,7 +12312,7 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
@@ -12311,27 +12330,27 @@
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>85</v>
+        <v>496</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>85</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12342,10 +12361,10 @@
         <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>85</v>
@@ -12354,18 +12373,20 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>285</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
       </c>
@@ -12389,13 +12410,13 @@
         <v>85</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>509</v>
+        <v>85</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>511</v>
+        <v>85</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>85</v>
@@ -12413,13 +12434,13 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>85</v>
@@ -12431,27 +12452,27 @@
         <v>85</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>512</v>
+        <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>515</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12477,17 +12498,15 @@
         <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>85</v>
       </c>
@@ -12511,11 +12530,13 @@
         <v>85</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>85</v>
@@ -12533,7 +12554,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12551,27 +12572,27 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>85</v>
+        <v>515</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>85</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12594,18 +12615,20 @@
         <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>525</v>
+        <v>285</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>85</v>
       </c>
@@ -12629,13 +12652,11 @@
         <v>85</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>85</v>
+        <v>524</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>85</v>
@@ -12653,7 +12674,7 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -12671,27 +12692,27 @@
         <v>85</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>529</v>
+        <v>85</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>532</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12714,16 +12735,16 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12773,7 +12794,7 @@
         <v>85</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -12791,27 +12812,27 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12822,7 +12843,7 @@
         <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>85</v>
@@ -12834,20 +12855,18 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>85</v>
       </c>
@@ -12895,45 +12914,45 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>549</v>
-      </c>
       <c r="AN87" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>85</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12944,7 +12963,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>85</v>
@@ -12956,16 +12975,20 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>161</v>
+        <v>546</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>162</v>
+        <v>547</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>85</v>
       </c>
@@ -13013,19 +13036,19 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>164</v>
+        <v>545</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>85</v>
+        <v>551</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>85</v>
@@ -13034,10 +13057,10 @@
         <v>85</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>85</v>
+        <v>552</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>165</v>
+        <v>553</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>85</v>
@@ -13048,21 +13071,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>85</v>
@@ -13074,17 +13097,15 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>85</v>
@@ -13133,19 +13154,19 @@
         <v>85</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>85</v>
@@ -13168,14 +13189,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>554</v>
+        <v>168</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13188,26 +13209,24 @@
         <v>85</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>141</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>555</v>
+        <v>169</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>556</v>
+        <v>170</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="O90" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>85</v>
       </c>
@@ -13255,7 +13274,7 @@
         <v>85</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>557</v>
+        <v>173</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>83</v>
@@ -13279,7 +13298,7 @@
         <v>85</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>85</v>
@@ -13290,42 +13309,46 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>85</v>
+        <v>557</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>85</v>
       </c>
@@ -13373,19 +13396,19 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>562</v>
+        <v>85</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>85</v>
@@ -13394,10 +13417,10 @@
         <v>85</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>563</v>
+        <v>85</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>564</v>
+        <v>139</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>85</v>
@@ -13408,10 +13431,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13434,13 +13457,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13491,7 +13514,7 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -13500,7 +13523,7 @@
         <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>108</v>
@@ -13512,10 +13535,10 @@
         <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>85</v>
@@ -13526,10 +13549,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13552,20 +13575,16 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>285</v>
+        <v>562</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>573</v>
-      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>85</v>
       </c>
@@ -13589,13 +13608,13 @@
         <v>85</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>574</v>
+        <v>85</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>575</v>
+        <v>85</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>85</v>
@@ -13613,7 +13632,7 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
@@ -13622,7 +13641,7 @@
         <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>85</v>
+        <v>565</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>108</v>
@@ -13631,13 +13650,13 @@
         <v>85</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>576</v>
+        <v>85</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>85</v>
@@ -13648,10 +13667,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13662,7 +13681,7 @@
         <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>85</v>
@@ -13677,16 +13696,16 @@
         <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>85</v>
@@ -13711,13 +13730,13 @@
         <v>85</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>509</v>
+        <v>120</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>85</v>
@@ -13735,13 +13754,13 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>85</v>
@@ -13753,13 +13772,13 @@
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>85</v>
@@ -13770,10 +13789,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13784,7 +13803,7 @@
         <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>85</v>
@@ -13796,17 +13815,19 @@
         <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>586</v>
+        <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>85</v>
@@ -13831,13 +13852,13 @@
         <v>85</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>85</v>
+        <v>512</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>85</v>
+        <v>586</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>85</v>
+        <v>587</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>85</v>
@@ -13855,13 +13876,13 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>85</v>
@@ -13873,13 +13894,13 @@
         <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>85</v>
+        <v>579</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>590</v>
+        <v>498</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>85</v>
@@ -13890,10 +13911,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13916,16 +13937,18 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>161</v>
+        <v>589</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M96" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>85</v>
       </c>
@@ -13973,7 +13996,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -13994,10 +14017,10 @@
         <v>85</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>563</v>
+        <v>85</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>85</v>
@@ -14008,10 +14031,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14019,11 +14042,11 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G97" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G97" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="H97" t="s" s="2">
         <v>85</v>
       </c>
@@ -14031,20 +14054,18 @@
         <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>599</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>85</v>
@@ -14081,23 +14102,25 @@
         <v>85</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AC97" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD97" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>85</v>
@@ -14112,10 +14135,10 @@
         <v>85</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>85</v>
@@ -14126,10 +14149,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14137,7 +14160,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>84</v>
@@ -14152,16 +14175,16 @@
         <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14199,19 +14222,17 @@
         <v>85</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>83</v>
@@ -14232,10 +14253,10 @@
         <v>85</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>85</v>
@@ -14246,10 +14267,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14260,7 +14281,7 @@
         <v>83</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>85</v>
@@ -14272,20 +14293,18 @@
         <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>613</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>85</v>
       </c>
@@ -14333,7 +14352,7 @@
         <v>85</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
@@ -14354,10 +14373,10 @@
         <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>85</v>
@@ -14368,10 +14387,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14382,7 +14401,7 @@
         <v>83</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>85</v>
@@ -14391,19 +14410,23 @@
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>161</v>
+        <v>546</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>162</v>
+        <v>613</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>85</v>
       </c>
@@ -14451,19 +14474,19 @@
         <v>85</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>164</v>
+        <v>612</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>85</v>
@@ -14472,10 +14495,10 @@
         <v>85</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>85</v>
+        <v>617</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>165</v>
+        <v>618</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>85</v>
@@ -14486,10 +14509,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14500,7 +14523,7 @@
         <v>83</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>85</v>
@@ -14512,13 +14535,13 @@
         <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14557,29 +14580,31 @@
         <v>85</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC101" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD101" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>85</v>
@@ -14591,7 +14616,7 @@
         <v>85</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>85</v>
@@ -14602,14 +14627,12 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
         <v>85</v>
       </c>
@@ -14618,7 +14641,7 @@
         <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>85</v>
@@ -14630,13 +14653,13 @@
         <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14675,16 +14698,14 @@
         <v>85</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>173</v>
@@ -14696,7 +14717,7 @@
         <v>84</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>147</v>
@@ -14711,7 +14732,7 @@
         <v>85</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>85</v>
@@ -14722,12 +14743,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>85</v>
       </c>
@@ -14748,13 +14771,13 @@
         <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14805,19 +14828,19 @@
         <v>85</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>85</v>
@@ -14829,7 +14852,7 @@
         <v>85</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>85</v>
@@ -14840,10 +14863,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14854,7 +14877,7 @@
         <v>83</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>85</v>
@@ -14866,13 +14889,13 @@
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14911,31 +14934,31 @@
         <v>85</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>85</v>
@@ -14947,7 +14970,7 @@
         <v>85</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>85</v>
@@ -14958,10 +14981,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14969,10 +14992,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>85</v>
@@ -14984,24 +15007,22 @@
         <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>85</v>
@@ -15031,31 +15052,31 @@
         <v>85</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>85</v>
@@ -15067,7 +15088,7 @@
         <v>85</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>85</v>
@@ -15078,10 +15099,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15104,22 +15125,24 @@
         <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>85</v>
@@ -15161,10 +15184,10 @@
         <v>85</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>96</v>
@@ -15173,7 +15196,7 @@
         <v>85</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>85</v>
@@ -15196,46 +15219,42 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>554</v>
+        <v>85</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>555</v>
+        <v>192</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>85</v>
       </c>
@@ -15283,19 +15302,19 @@
         <v>85</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>557</v>
+        <v>194</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>85</v>
@@ -15318,45 +15337,45 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>85</v>
+        <v>557</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>629</v>
+        <v>558</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>631</v>
+        <v>171</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>85</v>
@@ -15381,13 +15400,13 @@
         <v>85</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>509</v>
+        <v>85</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>632</v>
+        <v>85</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>633</v>
+        <v>85</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>85</v>
@@ -15405,34 +15424,34 @@
         <v>85</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>628</v>
+        <v>560</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>634</v>
+        <v>85</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>319</v>
+        <v>85</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>85</v>
@@ -15440,10 +15459,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15451,7 +15470,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>96</v>
@@ -15466,19 +15485,19 @@
         <v>97</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>424</v>
+        <v>285</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>426</v>
+        <v>633</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>85</v>
@@ -15503,32 +15522,34 @@
         <v>85</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>85</v>
+        <v>512</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>85</v>
+        <v>635</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>85</v>
+        <v>636</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AC109" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>96</v>
@@ -15543,31 +15564,29 @@
         <v>85</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>433</v>
+        <v>317</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>434</v>
+        <v>318</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>85</v>
+        <v>319</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>435</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
         <v>85</v>
       </c>
@@ -15588,16 +15607,16 @@
         <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>161</v>
+        <v>639</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>428</v>
@@ -15637,19 +15656,17 @@
         <v>85</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="AC110" s="2"/>
       <c r="AD110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>83</v>
@@ -15667,7 +15684,7 @@
         <v>85</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>433</v>
@@ -15684,13 +15701,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>85</v>
@@ -15709,19 +15726,19 @@
         <v>85</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>440</v>
+        <v>161</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>441</v>
+        <v>640</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>443</v>
+        <v>641</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>428</v>
@@ -15773,7 +15790,7 @@
         <v>85</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>83</v>
@@ -15782,39 +15799,39 @@
         <v>96</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>444</v>
+        <v>108</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>85</v>
+        <v>642</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>85</v>
@@ -15833,19 +15850,19 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>452</v>
+        <v>641</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>428</v>
@@ -15897,7 +15914,7 @@
         <v>85</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>83</v>
@@ -15906,39 +15923,39 @@
         <v>96</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>453</v>
+        <v>108</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>85</v>
+        <v>642</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>85</v>
@@ -15957,19 +15974,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>636</v>
+        <v>444</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>637</v>
+        <v>446</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>428</v>
@@ -16021,7 +16038,7 @@
         <v>85</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
@@ -16030,39 +16047,39 @@
         <v>96</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>108</v>
+        <v>447</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>638</v>
+        <v>85</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>435</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>85</v>
@@ -16081,19 +16098,19 @@
         <v>85</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>636</v>
+        <v>453</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>637</v>
+        <v>455</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>428</v>
@@ -16145,7 +16162,7 @@
         <v>85</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>83</v>
@@ -16154,39 +16171,39 @@
         <v>96</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>108</v>
+        <v>456</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>638</v>
+        <v>85</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>433</v>
+        <v>139</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>435</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>85</v>
@@ -16208,16 +16225,16 @@
         <v>97</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>428</v>
@@ -16269,7 +16286,7 @@
         <v>85</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -16287,7 +16304,7 @@
         <v>85</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>433</v>
@@ -16304,13 +16321,13 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>85</v>
@@ -16329,19 +16346,19 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>467</v>
+        <v>640</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>469</v>
+        <v>641</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>428</v>
@@ -16393,7 +16410,7 @@
         <v>85</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -16402,39 +16419,39 @@
         <v>96</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>470</v>
+        <v>108</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>85</v>
+        <v>642</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>85</v>
@@ -16456,16 +16473,16 @@
         <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>285</v>
+        <v>466</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>428</v>
@@ -16493,11 +16510,13 @@
         <v>85</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y117" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="Z117" t="s" s="2">
-        <v>475</v>
+        <v>85</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>85</v>
@@ -16515,7 +16534,7 @@
         <v>85</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -16533,7 +16552,7 @@
         <v>85</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>433</v>
@@ -16550,12 +16569,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>85</v>
       </c>
@@ -16576,19 +16597,19 @@
         <v>85</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>285</v>
+        <v>469</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>648</v>
+        <v>470</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>649</v>
+        <v>471</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>650</v>
+        <v>472</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>85</v>
@@ -16613,13 +16634,13 @@
         <v>85</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>481</v>
+        <v>85</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>482</v>
+        <v>85</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>85</v>
@@ -16637,7 +16658,7 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -16646,10 +16667,10 @@
         <v>96</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>483</v>
+        <v>158</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>108</v>
+        <v>473</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>85</v>
@@ -16658,10 +16679,10 @@
         <v>85</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>139</v>
+        <v>474</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>85</v>
@@ -16675,18 +16696,20 @@
         <v>651</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D119" t="s" s="2">
-        <v>486</v>
+        <v>85</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>85</v>
@@ -16695,22 +16718,22 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>285</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>487</v>
+        <v>640</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>489</v>
+        <v>641</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>85</v>
@@ -16735,13 +16758,11 @@
         <v>85</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>85</v>
@@ -16759,13 +16780,13 @@
         <v>85</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>85</v>
@@ -16777,19 +16798,19 @@
         <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>493</v>
+        <v>642</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>496</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" hidden="true">
@@ -16808,7 +16829,7 @@
         <v>83</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>85</v>
@@ -16820,7 +16841,7 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>653</v>
@@ -16829,10 +16850,10 @@
         <v>654</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>546</v>
+        <v>655</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>547</v>
+        <v>483</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>85</v>
@@ -16857,13 +16878,13 @@
         <v>85</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>85</v>
+        <v>343</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>85</v>
+        <v>484</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>85</v>
+        <v>485</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>85</v>
@@ -16887,10 +16908,10 @@
         <v>83</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>85</v>
+        <v>486</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>108</v>
@@ -16902,20 +16923,264 @@
         <v>85</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AO120" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP120" t="s" s="2">
+      <c r="P122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP120">
+  <autoFilter ref="A1:AP122">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16925,7 +17190,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI119">
+  <conditionalFormatting sqref="A2:AI121">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-lab-report/StructureDefinition-ChLab-observation-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ChLab-observation-panel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="644">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -483,7 +483,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -491,6 +491,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -507,10 +511,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -741,7 +741,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1245,7 +1245,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1323,7 +1323,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1416,25 +1416,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1445,22 +1426,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1501,30 +1466,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2438,15 +2387,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2457,28 +2406,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3659,7 +3608,7 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>147</v>
@@ -3685,13 +3634,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>85</v>
@@ -3713,13 +3662,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3779,7 +3728,7 @@
         <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>147</v>
@@ -6157,7 +6106,7 @@
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>147</v>
@@ -6277,7 +6226,7 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>147</v>
@@ -6397,7 +6346,7 @@
         <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>147</v>
@@ -6457,7 +6406,7 @@
         <v>232</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6517,7 +6466,7 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>147</v>
@@ -10285,7 +10234,7 @@
         <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>85</v>
@@ -11262,19 +11211,19 @@
         <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>428</v>
@@ -11335,39 +11284,39 @@
         <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>447</v>
+        <v>108</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
@@ -11386,19 +11335,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>428</v>
@@ -11459,39 +11408,39 @@
         <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>456</v>
+        <v>108</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>85</v>
@@ -11513,7 +11462,7 @@
         <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>425</v>
@@ -11609,13 +11558,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>85</v>
@@ -11637,7 +11586,7 @@
         <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>425</v>
@@ -11733,13 +11682,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>85</v>
@@ -11761,7 +11710,7 @@
         <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>425</v>
@@ -11857,13 +11806,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>85</v>
@@ -11882,19 +11831,19 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>428</v>
@@ -11955,39 +11904,39 @@
         <v>96</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>473</v>
+        <v>108</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>85</v>
@@ -12009,7 +11958,7 @@
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>285</v>
+        <v>461</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>425</v>
@@ -12050,7 +11999,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>85</v>
@@ -12103,10 +12052,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12132,16 +12081,16 @@
         <v>285</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12169,10 +12118,10 @@
         <v>343</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>85</v>
@@ -12190,7 +12139,7 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
@@ -12199,7 +12148,7 @@
         <v>96</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>108</v>
@@ -12214,7 +12163,7 @@
         <v>139</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>85</v>
@@ -12225,14 +12174,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12254,16 +12203,16 @@
         <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12291,10 +12240,10 @@
         <v>343</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>85</v>
@@ -12312,7 +12261,7 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
@@ -12330,27 +12279,27 @@
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12373,19 +12322,19 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
@@ -12434,7 +12383,7 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
@@ -12455,10 +12404,10 @@
         <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>85</v>
@@ -12469,10 +12418,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12498,13 +12447,13 @@
         <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12530,13 +12479,13 @@
         <v>85</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>85</v>
@@ -12554,7 +12503,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12572,27 +12521,27 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12618,16 +12567,16 @@
         <v>285</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>85</v>
@@ -12656,7 +12605,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>85</v>
@@ -12674,7 +12623,7 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -12695,10 +12644,10 @@
         <v>85</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>85</v>
@@ -12709,10 +12658,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12735,16 +12684,16 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12794,7 +12743,7 @@
         <v>85</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -12812,27 +12761,27 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12855,16 +12804,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12914,7 +12863,7 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>83</v>
@@ -12932,27 +12881,27 @@
         <v>85</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12975,19 +12924,19 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>85</v>
@@ -13036,7 +12985,7 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -13048,7 +12997,7 @@
         <v>85</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>85</v>
@@ -13057,10 +13006,10 @@
         <v>85</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>85</v>
@@ -13071,10 +13020,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13189,10 +13138,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13309,14 +13258,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13338,10 +13287,10 @@
         <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>171</v>
@@ -13396,7 +13345,7 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -13431,10 +13380,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13457,13 +13406,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13514,7 +13463,7 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -13523,7 +13472,7 @@
         <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>108</v>
@@ -13535,10 +13484,10 @@
         <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>85</v>
@@ -13549,10 +13498,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13575,13 +13524,13 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13632,7 +13581,7 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
@@ -13641,7 +13590,7 @@
         <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>108</v>
@@ -13653,10 +13602,10 @@
         <v>85</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>85</v>
@@ -13667,10 +13616,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13696,16 +13645,16 @@
         <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>85</v>
@@ -13733,10 +13682,10 @@
         <v>120</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>85</v>
@@ -13754,7 +13703,7 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
@@ -13772,13 +13721,13 @@
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>85</v>
@@ -13789,10 +13738,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13818,16 +13767,16 @@
         <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>85</v>
@@ -13852,13 +13801,13 @@
         <v>85</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>85</v>
@@ -13876,7 +13825,7 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
@@ -13894,13 +13843,13 @@
         <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>85</v>
@@ -13911,10 +13860,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13937,17 +13886,17 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>85</v>
@@ -13996,7 +13945,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -14020,7 +13969,7 @@
         <v>85</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>85</v>
@@ -14031,10 +13980,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14060,10 +14009,10 @@
         <v>161</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14114,7 +14063,7 @@
         <v>85</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
@@ -14135,10 +14084,10 @@
         <v>85</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>85</v>
@@ -14149,10 +14098,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14175,16 +14124,16 @@
         <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14222,7 +14171,7 @@
         <v>85</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14232,7 +14181,7 @@
         <v>145</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>83</v>
@@ -14253,10 +14202,10 @@
         <v>85</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>85</v>
@@ -14267,10 +14216,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14293,16 +14242,16 @@
         <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14352,7 +14301,7 @@
         <v>85</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
@@ -14373,10 +14322,10 @@
         <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>85</v>
@@ -14387,10 +14336,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14413,19 +14362,19 @@
         <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>85</v>
@@ -14474,7 +14423,7 @@
         <v>85</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>83</v>
@@ -14495,10 +14444,10 @@
         <v>85</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>85</v>
@@ -14509,10 +14458,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14627,10 +14576,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14743,10 +14692,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>230</v>
@@ -14777,7 +14726,7 @@
         <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14837,7 +14786,7 @@
         <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>147</v>
@@ -14863,10 +14812,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14981,10 +14930,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15099,10 +15048,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15219,10 +15168,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15337,14 +15286,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15366,10 +15315,10 @@
         <v>141</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>171</v>
@@ -15424,7 +15373,7 @@
         <v>85</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>83</v>
@@ -15459,10 +15408,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15488,13 +15437,13 @@
         <v>285</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>313</v>
@@ -15522,13 +15471,13 @@
         <v>85</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>85</v>
@@ -15546,7 +15495,7 @@
         <v>85</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>96</v>
@@ -15564,7 +15513,7 @@
         <v>85</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>317</v>
@@ -15581,10 +15530,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15607,16 +15556,16 @@
         <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>428</v>
@@ -15666,7 +15615,7 @@
         <v>145</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>83</v>
@@ -15684,7 +15633,7 @@
         <v>85</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>433</v>
@@ -15701,10 +15650,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>437</v>
@@ -15732,13 +15681,13 @@
         <v>161</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>428</v>
@@ -15790,7 +15739,7 @@
         <v>85</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>83</v>
@@ -15808,7 +15757,7 @@
         <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>433</v>
@@ -15825,10 +15774,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>439</v>
@@ -15856,13 +15805,13 @@
         <v>440</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>428</v>
@@ -15914,7 +15863,7 @@
         <v>85</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>83</v>
@@ -15932,7 +15881,7 @@
         <v>85</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>433</v>
@@ -15949,10 +15898,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>442</v>
@@ -15974,19 +15923,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>444</v>
+        <v>624</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>446</v>
+        <v>625</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>428</v>
@@ -16038,7 +15987,7 @@
         <v>85</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
@@ -16047,39 +15996,39 @@
         <v>96</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>447</v>
+        <v>108</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>85</v>
+        <v>626</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>85</v>
@@ -16098,19 +16047,19 @@
         <v>85</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>453</v>
+        <v>624</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>455</v>
+        <v>625</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>428</v>
@@ -16162,7 +16111,7 @@
         <v>85</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>83</v>
@@ -16171,39 +16120,39 @@
         <v>96</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>456</v>
+        <v>108</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>85</v>
+        <v>626</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>85</v>
@@ -16225,16 +16174,16 @@
         <v>97</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>428</v>
@@ -16286,7 +16235,7 @@
         <v>85</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -16304,7 +16253,7 @@
         <v>85</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>433</v>
@@ -16321,13 +16270,13 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>85</v>
@@ -16349,16 +16298,16 @@
         <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>428</v>
@@ -16410,7 +16359,7 @@
         <v>85</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -16428,7 +16377,7 @@
         <v>85</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>433</v>
@@ -16445,13 +16394,13 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>85</v>
@@ -16473,16 +16422,16 @@
         <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>428</v>
@@ -16534,7 +16483,7 @@
         <v>85</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -16552,7 +16501,7 @@
         <v>85</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>433</v>
@@ -16569,13 +16518,13 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>85</v>
@@ -16594,19 +16543,19 @@
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>470</v>
+        <v>624</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>472</v>
+        <v>625</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>428</v>
@@ -16658,7 +16607,7 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -16667,39 +16616,39 @@
         <v>96</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>473</v>
+        <v>108</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>85</v>
+        <v>626</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>85</v>
@@ -16721,16 +16670,16 @@
         <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>285</v>
+        <v>461</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>428</v>
@@ -16762,7 +16711,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>85</v>
@@ -16780,7 +16729,7 @@
         <v>85</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -16798,7 +16747,7 @@
         <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>433</v>
@@ -16815,10 +16764,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16844,16 +16793,16 @@
         <v>285</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>85</v>
@@ -16881,10 +16830,10 @@
         <v>343</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>85</v>
@@ -16902,7 +16851,7 @@
         <v>85</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>83</v>
@@ -16911,7 +16860,7 @@
         <v>96</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>108</v>
@@ -16926,7 +16875,7 @@
         <v>139</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>85</v>
@@ -16937,14 +16886,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16966,16 +16915,16 @@
         <v>285</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>85</v>
@@ -17003,10 +16952,10 @@
         <v>343</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>85</v>
@@ -17024,7 +16973,7 @@
         <v>85</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>83</v>
@@ -17042,27 +16991,27 @@
         <v>85</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17088,16 +17037,16 @@
         <v>85</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>85</v>
@@ -17146,7 +17095,7 @@
         <v>85</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
@@ -17167,10 +17116,10 @@
         <v>85</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>85</v>

--- a/ig/ch-lab-report/StructureDefinition-ChLab-observation-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ChLab-observation-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -392,7 +392,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -818,7 +818,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -930,7 +930,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1102,7 +1102,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1147,7 +1147,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1170,7 +1170,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1498,7 +1498,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1530,7 +1530,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1589,7 +1589,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1660,7 +1660,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1790,7 +1790,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1823,7 +1823,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1886,7 +1886,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1974,7 +1974,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -12172,7 +12172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>472</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>484</v>
       </c>
@@ -17130,12 +17130,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP122">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
